--- a/Uploads/excel_format/Group_creation.xlsx
+++ b/Uploads/excel_format/Group_creation.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>s.no</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Grace Period</t>
+  </si>
+  <si>
+    <t>total_members</t>
   </si>
 </sst>
 </file>
@@ -423,24 +426,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="8" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:14" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -466,22 +469,25 @@
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1">
+    <row r="2" spans="1:14" s="4" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -507,25 +513,28 @@
         <v>3</v>
       </c>
       <c r="I2" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="D7" s="4"/>
     </row>
   </sheetData>
